--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H2">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>4.365921704151445</v>
+        <v>6.298390483068444</v>
       </c>
       <c r="R2">
-        <v>39.29329533736301</v>
+        <v>56.685514347616</v>
       </c>
       <c r="S2">
-        <v>0.03342571365979936</v>
+        <v>0.04252623294978246</v>
       </c>
       <c r="T2">
-        <v>0.03342571365979936</v>
+        <v>0.04252623294978245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H3">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
-        <v>14.82020458698645</v>
+        <v>10.77492625612089</v>
       </c>
       <c r="R3">
-        <v>133.381841282878</v>
+        <v>96.97433630508799</v>
       </c>
       <c r="S3">
-        <v>0.1134642232436769</v>
+        <v>0.07275144740808298</v>
       </c>
       <c r="T3">
-        <v>0.1134642232436769</v>
+        <v>0.07275144740808295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H4">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I4">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J4">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
-        <v>3.415918519551222</v>
+        <v>2.483519706428444</v>
       </c>
       <c r="R4">
-        <v>30.743266675961</v>
+        <v>22.351677357856</v>
       </c>
       <c r="S4">
-        <v>0.02615244204016634</v>
+        <v>0.01676852806361699</v>
       </c>
       <c r="T4">
-        <v>0.02615244204016634</v>
+        <v>0.01676852806361698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.213034</v>
       </c>
       <c r="I5">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J5">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>16.44466322355978</v>
+        <v>32.63010831358289</v>
       </c>
       <c r="R5">
-        <v>148.001969012038</v>
+        <v>293.670974822246</v>
       </c>
       <c r="S5">
-        <v>0.1259011593405055</v>
+        <v>0.2203159030946636</v>
       </c>
       <c r="T5">
-        <v>0.1259011593405055</v>
+        <v>0.2203159030946636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.213034</v>
       </c>
       <c r="I6">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J6">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>55.82172330426977</v>
@@ -818,10 +818,10 @@
         <v>502.395509738428</v>
       </c>
       <c r="S6">
-        <v>0.4273738893189155</v>
+        <v>0.3769038479397625</v>
       </c>
       <c r="T6">
-        <v>0.4273738893189156</v>
+        <v>0.3769038479397625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.213034</v>
       </c>
       <c r="I7">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J7">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
         <v>12.86638502924289</v>
@@ -880,10 +880,10 @@
         <v>115.797465263186</v>
       </c>
       <c r="S7">
-        <v>0.09850568355709656</v>
+        <v>0.08687281114850984</v>
       </c>
       <c r="T7">
-        <v>0.0985056835570966</v>
+        <v>0.08687281114850984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H8">
         <v>1.669856</v>
       </c>
       <c r="I8">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J8">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N8">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O8">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P8">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q8">
-        <v>4.419776159576888</v>
+        <v>8.769883143740445</v>
       </c>
       <c r="R8">
-        <v>39.777985436192</v>
+        <v>78.92894829366401</v>
       </c>
       <c r="S8">
-        <v>0.03383802604841678</v>
+        <v>0.05921355535444401</v>
       </c>
       <c r="T8">
-        <v>0.03383802604841678</v>
+        <v>0.05921355535444399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H9">
         <v>1.669856</v>
       </c>
       <c r="I9">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J9">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>80.861542</v>
       </c>
       <c r="O9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q9">
         <v>15.00301456421689</v>
@@ -1004,10 +1004,10 @@
         <v>135.027131077952</v>
       </c>
       <c r="S9">
-        <v>0.1148638255194687</v>
+        <v>0.101299164289991</v>
       </c>
       <c r="T9">
-        <v>0.1148638255194687</v>
+        <v>0.101299164289991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H10">
         <v>1.669856</v>
       </c>
       <c r="I10">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J10">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>18.637829</v>
       </c>
       <c r="O10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q10">
-        <v>3.458054509180444</v>
+        <v>3.458054509180445</v>
       </c>
       <c r="R10">
         <v>31.122490582624</v>
       </c>
       <c r="S10">
-        <v>0.02647503727195425</v>
+        <v>0.02334850975114671</v>
       </c>
       <c r="T10">
-        <v>0.02647503727195426</v>
+        <v>0.0233485097511467</v>
       </c>
     </row>
   </sheetData>
